--- a/data/2023-12-09.xlsx
+++ b/data/2023-12-09.xlsx
@@ -25,6 +25,8 @@
     <sheet name="1500" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="1600" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="1700" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="1800" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="1900" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -642,6 +644,247 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>The Title Track</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Origami Angel</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Somewhere City</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>151.196</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>2023-12-09T17:25:08.371Z</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Glory</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Snail Mail</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Valentine</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-11-05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2023-12-09T17:22:37.273Z</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Humming</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Turnover</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Peripheral Vision</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>238.494</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2015-09-04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2023-12-09T17:17:59.140Z</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Never Meant</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>American Football</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>American Football</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>268.333</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1999-09-14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2023-12-09T17:12:59.121Z</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>But Not Often,</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Head North</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Split</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>192.067</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2015-10-09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2023-12-09T17:08:30.683Z</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Girl Scout Cookies</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mom Jeans.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Best Buds</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>225.863</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2016-07-03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2023-12-09T17:02:05.875Z</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -660,6 +903,247 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Cheerleader</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Ashnikko</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>WEEDKILLER</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>132.818</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>2023-12-09T18:49:38.634Z</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Fire Again</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>VALORANT</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Fire Again</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>206.776</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2023-12-09T18:47:25.801Z</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Slumber Party (feat. Princess Nokia)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ashnikko</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DEMIDEVIL</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>178.404</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2021-01-15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2023-12-09T18:43:59.019Z</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>You Make Me Sick!</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ashnikko</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>You Make Me Sick!</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>138.299</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2023-12-09T18:41:00.508Z</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Worms</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ashnikko</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Worms</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>148.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2023-03-02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2023-12-09T18:38:42.230Z</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Worms</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ashnikko</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Worms</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>148.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2023-03-02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2023-12-09T18:36:12.515Z</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
